--- a/excel assignment.xlsx
+++ b/excel assignment.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91743\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A537EB-EAB4-45AD-A837-A3AF59D04F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90453254-D388-4441-8AC0-2CC601DD51C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="oPohxc5wfT/Sn9BfWSRFzfvfGdeu77kdXZwnkznq9QtZjkIrupux+glfG+KH6uAa50gi5rvfuYd3XWYb2YZJcA==" workbookSaltValue="3FxKYnUN44pvvsjkusy+pw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="21" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E4B56F38-D64E-4259-B219-6B5B05364F51}"/>
   </bookViews>
   <sheets>
     <sheet name="AVERAGE 1 - Question" sheetId="1" r:id="rId1"/>
@@ -57,6 +58,61 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={13EA6597-C71F-46F3-8FE7-EA4223784AE8}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{13EA6597-C71F-46F3-8FE7-EA4223784AE8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Average formula is :-
+=avg(total no sum/ total no)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={58FA73BF-4A1C-46B0-997C-B4DB4A77ECDF}</author>
+  </authors>
+  <commentList>
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{58FA73BF-4A1C-46B0-997C-B4DB4A77ECDF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In this assignment we learnt many basic function and also advanced function which can be used at Industrial level.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E8457B46-4878-4D6F-AA38-BB7300CD82D1}</author>
+  </authors>
+  <commentList>
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{E8457B46-4878-4D6F-AA38-BB7300CD82D1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In this sheet I have used vlookup  formula of excel </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{9A18622B-F2C9-4F5F-8497-D51E9A8774B4}" keepAlive="1" name="Query - AVERAGE 3 - Question" description="Connection to the 'AVERAGE 3 - Question' query in the workbook." type="5" refreshedVersion="0" background="1">
@@ -1969,7 +2025,7 @@
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,6 +2324,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2865,6 +2927,40 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2939,42 +3035,8 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2995,6 +3057,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="suraj rajput" id="{31BD33ED-801E-4F97-90FE-147BA35CFF16}" userId="2aa31bb404222563" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3292,12 +3360,37 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2024-07-24T08:53:09.54" personId="{31BD33ED-801E-4F97-90FE-147BA35CFF16}" id="{13EA6597-C71F-46F3-8FE7-EA4223784AE8}">
+    <text>Average formula is :-
+=avg(total no sum/ total no)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M13" dT="2025-01-01T10:06:30.92" personId="{31BD33ED-801E-4F97-90FE-147BA35CFF16}" id="{58FA73BF-4A1C-46B0-997C-B4DB4A77ECDF}">
+    <text>In this assignment we learnt many basic function and also advanced function which can be used at Industrial level.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C39" dT="2024-07-24T08:50:39.56" personId="{31BD33ED-801E-4F97-90FE-147BA35CFF16}" id="{E8457B46-4878-4D6F-AA38-BB7300CD82D1}">
+    <text xml:space="preserve">In this sheet I have used vlookup  formula of excel </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184D8B87-3A81-492A-ADEF-EEF98CC70539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184D8B87-3A81-492A-ADEF-EEF98CC70539}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q5"/>
     </sheetView>
   </sheetViews>
@@ -3311,78 +3404,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="118"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="130"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="121"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="133"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="121"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="133"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="124"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="136"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F6" s="8" t="s">
@@ -3573,6 +3666,7 @@
     <mergeCell ref="B2:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5826,11 +5920,11 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="136" t="s">
+      <c r="D28" s="148" t="s">
         <v>257</v>
       </c>
-      <c r="E28" s="137"/>
-      <c r="F28" s="138"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="83" t="s">
@@ -8785,8 +8879,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:M3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8797,51 +8891,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -9383,94 +9477,94 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="91"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="91"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="91"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="91"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="91"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="91"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="91"/>
@@ -9537,94 +9631,94 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="91"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="91"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="91"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="91"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="91"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="91"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="91"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="91"/>
@@ -9691,94 +9785,94 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="91"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="91"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="139"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="91"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="91"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="139"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="91"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="151"/>
+      <c r="K52" s="151"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="91"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="139"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="151"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="91"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="139"/>
-      <c r="K54" s="139"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="151"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="91"/>
@@ -10045,11 +10139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0BDCE9-DD33-4CD2-BBA3-98E6FD9F3EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0BDCE9-DD33-4CD2-BBA3-98E6FD9F3EC5}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A7:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -10062,12 +10156,12 @@
   <sheetData>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="106"/>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="152" t="s">
         <v>475</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="107"/>
       <c r="G7" s="107"/>
     </row>
@@ -10390,11 +10484,11 @@
       <c r="A27" s="106">
         <v>3</v>
       </c>
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="107"/>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
@@ -10476,11 +10570,11 @@
       <c r="A34" s="106">
         <v>4</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="153" t="s">
         <v>500</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="107"/>
       <c r="F34" s="107"/>
       <c r="G34" s="107"/>
@@ -10583,6 +10677,7 @@
     <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10601,341 +10696,341 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
-      <c r="B7" s="145" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="118" t="s">
         <v>502</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="142"/>
-      <c r="B8" s="147" t="s">
+      <c r="A8" s="116"/>
+      <c r="B8" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="147" t="s">
+      <c r="D8" s="120" t="s">
         <v>503</v>
       </c>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="120" t="s">
         <v>504</v>
       </c>
-      <c r="F8" s="146"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="142"/>
-      <c r="B9" s="148" t="s">
+      <c r="A9" s="116"/>
+      <c r="B9" s="121" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="148">
+      <c r="C9" s="121">
         <v>35</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="121" t="s">
         <v>506</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="121" t="s">
         <v>507</v>
       </c>
-      <c r="F9" s="146"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="142"/>
-      <c r="B10" s="148" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="121" t="s">
         <v>508</v>
       </c>
-      <c r="C10" s="148">
+      <c r="C10" s="121">
         <v>42</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="121" t="s">
         <v>510</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="142"/>
-      <c r="B11" s="148" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="121">
         <v>28</v>
       </c>
-      <c r="D11" s="148" t="s">
+      <c r="D11" s="121" t="s">
         <v>506</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="121" t="s">
         <v>511</v>
       </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="142"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="116"/>
+      <c r="B12" s="121" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="148">
+      <c r="C12" s="121">
         <v>25</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="142"/>
-      <c r="B13" s="148" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="121" t="s">
         <v>513</v>
       </c>
-      <c r="C13" s="148">
+      <c r="C13" s="121">
         <v>31</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="D13" s="121" t="s">
         <v>506</v>
       </c>
-      <c r="E13" s="148" t="s">
+      <c r="E13" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="142"/>
-      <c r="B14" s="148" t="s">
+      <c r="A14" s="116"/>
+      <c r="B14" s="121" t="s">
         <v>514</v>
       </c>
-      <c r="C14" s="148">
+      <c r="C14" s="121">
         <v>27</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="121" t="s">
         <v>515</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="142"/>
-      <c r="B15" s="148" t="s">
+      <c r="A15" s="116"/>
+      <c r="B15" s="121" t="s">
         <v>516</v>
       </c>
-      <c r="C15" s="148">
+      <c r="C15" s="121">
         <v>38</v>
       </c>
-      <c r="D15" s="148" t="s">
+      <c r="D15" s="121" t="s">
         <v>506</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="E15" s="121" t="s">
         <v>517</v>
       </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="142"/>
-      <c r="B16" s="148" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="121" t="s">
         <v>518</v>
       </c>
-      <c r="C16" s="148">
+      <c r="C16" s="121">
         <v>29</v>
       </c>
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="121" t="s">
         <v>519</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="142"/>
-      <c r="B17" s="148" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="121" t="s">
         <v>520</v>
       </c>
-      <c r="C17" s="148">
+      <c r="C17" s="121">
         <v>45</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="121" t="s">
         <v>506</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="121" t="s">
         <v>521</v>
       </c>
-      <c r="F17" s="146"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="142"/>
-      <c r="B18" s="148" t="s">
+      <c r="A18" s="116"/>
+      <c r="B18" s="121" t="s">
         <v>522</v>
       </c>
-      <c r="C18" s="148">
+      <c r="C18" s="121">
         <v>33</v>
       </c>
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="121" t="s">
         <v>509</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="121" t="s">
         <v>523</v>
       </c>
-      <c r="F18" s="146"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="142"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="142"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="142"/>
-      <c r="B21" s="143" t="s">
+      <c r="A21" s="116"/>
+      <c r="B21" s="117" t="s">
         <v>465</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="142"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116" t="s">
         <v>524</v>
       </c>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="142">
+      <c r="A23" s="116">
         <v>1</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="116" t="s">
         <v>525</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="142"/>
-      <c r="B24" s="142"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="98" t="s">
         <v>468</v>
       </c>
       <c r="D24" s="98"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="142"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="99" t="s">
         <v>112</v>
       </c>
@@ -10943,153 +11038,153 @@
         <f>VLOOKUP(B10,B8:E18,4,0)</f>
         <v>Data Scientist</v>
       </c>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="142"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="142"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="142"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="142"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="142"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="142"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="142"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="142">
+      <c r="A34" s="116">
         <v>2</v>
       </c>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="116" t="s">
         <v>526</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="142"/>
-      <c r="B35" s="142"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="98" t="s">
         <v>468</v>
       </c>
       <c r="D35" s="98"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="142"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="99" t="s">
         <v>112</v>
       </c>
@@ -11097,153 +11192,153 @@
         <f>VLOOKUP(B17,B8:E18,2,0)</f>
         <v>45</v>
       </c>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="142"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="142"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="142"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="142"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="142"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="142"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="154"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="142"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="154"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="142"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="154"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="142"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
-      <c r="K44" s="142"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="142">
+      <c r="A45" s="116">
         <v>2</v>
       </c>
-      <c r="B45" s="142" t="s">
+      <c r="B45" s="116" t="s">
         <v>527</v>
       </c>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="142"/>
-      <c r="K45" s="142"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="142"/>
-      <c r="B46" s="142"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="98" t="s">
         <v>468</v>
       </c>
       <c r="D46" s="98"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
-      <c r="K46" s="142"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="142"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="99" t="s">
         <v>112</v>
       </c>
@@ -11251,131 +11346,131 @@
         <f>VLOOKUP("b*",B8:E18,4,0)</f>
         <v>Accountant</v>
       </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="142"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
+      <c r="K48" s="154"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="142"/>
-      <c r="B49" s="144"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="144"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="154"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="142"/>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="144"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
+      <c r="K50" s="154"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="142"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="154"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="142"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="154"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="142"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="144"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="154"/>
+      <c r="K53" s="154"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="142"/>
-      <c r="B54" s="144"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="144"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="154"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="142"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="142"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="142"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="142"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11697,45 +11792,45 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="125" t="s">
         <v>528</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="126" t="s">
         <v>609</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="125" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="125" t="s">
         <v>610</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="125" t="s">
         <v>611</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="127" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="149">
+      <c r="A5" s="122">
         <v>11280</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="122" t="s">
         <v>569</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="123" t="s">
         <v>570</v>
       </c>
-      <c r="D5" s="149">
+      <c r="D5" s="122">
         <v>15</v>
       </c>
-      <c r="E5" s="149">
+      <c r="E5" s="122">
         <v>30000</v>
       </c>
-      <c r="F5" s="149">
+      <c r="F5" s="122">
         <v>450000</v>
       </c>
       <c r="G5" s="66">
@@ -11744,22 +11839,22 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="149">
+      <c r="A6" s="122">
         <v>11281</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="122" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="123" t="s">
         <v>572</v>
       </c>
-      <c r="D6" s="149">
+      <c r="D6" s="122">
         <v>10</v>
       </c>
-      <c r="E6" s="149">
+      <c r="E6" s="122">
         <v>25000</v>
       </c>
-      <c r="F6" s="149">
+      <c r="F6" s="122">
         <v>250000</v>
       </c>
       <c r="G6" s="66">
@@ -11768,22 +11863,22 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="149">
+      <c r="A7" s="122">
         <v>11282</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="122" t="s">
         <v>573</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="123" t="s">
         <v>574</v>
       </c>
-      <c r="D7" s="149">
+      <c r="D7" s="122">
         <v>150</v>
       </c>
-      <c r="E7" s="149">
+      <c r="E7" s="122">
         <v>28000</v>
       </c>
-      <c r="F7" s="149">
+      <c r="F7" s="122">
         <v>4200000</v>
       </c>
       <c r="G7" s="66">
@@ -11793,27 +11888,27 @@
       <c r="K7" s="66" t="s">
         <v>599</v>
       </c>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="124" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="149">
+      <c r="A8" s="122">
         <v>11283</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="122" t="s">
         <v>575</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="123" t="s">
         <v>576</v>
       </c>
-      <c r="D8" s="149">
+      <c r="D8" s="122">
         <v>12</v>
       </c>
-      <c r="E8" s="149">
+      <c r="E8" s="122">
         <v>30000</v>
       </c>
-      <c r="F8" s="149">
+      <c r="F8" s="122">
         <v>360000</v>
       </c>
       <c r="G8" s="66">
@@ -11823,27 +11918,27 @@
       <c r="K8" s="66" t="s">
         <v>601</v>
       </c>
-      <c r="L8" s="151" t="s">
+      <c r="L8" s="124" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="149">
+      <c r="A9" s="122">
         <v>11284</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="122" t="s">
         <v>577</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="123" t="s">
         <v>578</v>
       </c>
-      <c r="D9" s="149">
+      <c r="D9" s="122">
         <v>20</v>
       </c>
-      <c r="E9" s="149">
+      <c r="E9" s="122">
         <v>30000</v>
       </c>
-      <c r="F9" s="149">
+      <c r="F9" s="122">
         <v>600000</v>
       </c>
       <c r="G9" s="66">
@@ -11853,27 +11948,27 @@
       <c r="K9" s="66" t="s">
         <v>603</v>
       </c>
-      <c r="L9" s="151" t="s">
+      <c r="L9" s="124" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="149">
+      <c r="A10" s="122">
         <v>11285</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="122" t="s">
         <v>579</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="123" t="s">
         <v>580</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="122">
         <v>20</v>
       </c>
-      <c r="E10" s="149">
+      <c r="E10" s="122">
         <v>26000</v>
       </c>
-      <c r="F10" s="149">
+      <c r="F10" s="122">
         <v>520000</v>
       </c>
       <c r="G10" s="66">
@@ -11883,27 +11978,27 @@
       <c r="K10" s="66" t="s">
         <v>605</v>
       </c>
-      <c r="L10" s="151" t="s">
+      <c r="L10" s="124" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="149">
+      <c r="A11" s="122">
         <v>11286</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="122" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="123" t="s">
         <v>582</v>
       </c>
-      <c r="D11" s="149">
+      <c r="D11" s="122">
         <v>2</v>
       </c>
-      <c r="E11" s="149">
+      <c r="E11" s="122">
         <v>30000</v>
       </c>
-      <c r="F11" s="149">
+      <c r="F11" s="122">
         <v>60000</v>
       </c>
       <c r="G11" s="66">
@@ -11913,27 +12008,27 @@
       <c r="K11" s="66" t="s">
         <v>607</v>
       </c>
-      <c r="L11" s="151" t="s">
+      <c r="L11" s="124" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="149">
+      <c r="A12" s="122">
         <v>11287</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="122" t="s">
         <v>583</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="123" t="s">
         <v>584</v>
       </c>
-      <c r="D12" s="149">
+      <c r="D12" s="122">
         <v>5</v>
       </c>
-      <c r="E12" s="149">
+      <c r="E12" s="122">
         <v>35000</v>
       </c>
-      <c r="F12" s="149">
+      <c r="F12" s="122">
         <v>175000</v>
       </c>
       <c r="G12" s="66">
@@ -11942,22 +12037,22 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="149">
+      <c r="A13" s="122">
         <v>11288</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="122" t="s">
         <v>585</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="123" t="s">
         <v>586</v>
       </c>
-      <c r="D13" s="149">
+      <c r="D13" s="122">
         <v>80</v>
       </c>
-      <c r="E13" s="149">
+      <c r="E13" s="122">
         <v>30000</v>
       </c>
-      <c r="F13" s="149">
+      <c r="F13" s="122">
         <v>2400000</v>
       </c>
       <c r="G13" s="66">
@@ -11966,22 +12061,22 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="149">
+      <c r="A14" s="122">
         <v>11289</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="122" t="s">
         <v>587</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="123" t="s">
         <v>588</v>
       </c>
-      <c r="D14" s="149">
+      <c r="D14" s="122">
         <v>100</v>
       </c>
-      <c r="E14" s="149">
+      <c r="E14" s="122">
         <v>26000</v>
       </c>
-      <c r="F14" s="149">
+      <c r="F14" s="122">
         <v>2600000</v>
       </c>
       <c r="G14" s="66">
@@ -11990,22 +12085,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="149">
+      <c r="A15" s="122">
         <v>11290</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="122" t="s">
         <v>589</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="123" t="s">
         <v>590</v>
       </c>
-      <c r="D15" s="149">
+      <c r="D15" s="122">
         <v>20</v>
       </c>
-      <c r="E15" s="149">
+      <c r="E15" s="122">
         <v>35000</v>
       </c>
-      <c r="F15" s="149">
+      <c r="F15" s="122">
         <v>700000</v>
       </c>
       <c r="G15" s="66">
@@ -12014,22 +12109,22 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="149">
+      <c r="A16" s="122">
         <v>11291</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="122" t="s">
         <v>591</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="123" t="s">
         <v>592</v>
       </c>
-      <c r="D16" s="149">
+      <c r="D16" s="122">
         <v>25</v>
       </c>
-      <c r="E16" s="149">
+      <c r="E16" s="122">
         <v>40000</v>
       </c>
-      <c r="F16" s="149">
+      <c r="F16" s="122">
         <v>1000000</v>
       </c>
       <c r="G16" s="66">
@@ -12038,22 +12133,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="149">
+      <c r="A17" s="122">
         <v>11292</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="122" t="s">
         <v>593</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="123" t="s">
         <v>574</v>
       </c>
-      <c r="D17" s="149">
+      <c r="D17" s="122">
         <v>10</v>
       </c>
-      <c r="E17" s="149">
+      <c r="E17" s="122">
         <v>28000</v>
       </c>
-      <c r="F17" s="149">
+      <c r="F17" s="122">
         <v>280000</v>
       </c>
       <c r="G17" s="66">
@@ -12062,22 +12157,22 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="149">
+      <c r="A18" s="122">
         <v>11293</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="122" t="s">
         <v>594</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="123" t="s">
         <v>576</v>
       </c>
-      <c r="D18" s="149">
+      <c r="D18" s="122">
         <v>10</v>
       </c>
-      <c r="E18" s="149">
+      <c r="E18" s="122">
         <v>30000</v>
       </c>
-      <c r="F18" s="149">
+      <c r="F18" s="122">
         <v>300000</v>
       </c>
       <c r="G18" s="66">
@@ -12086,22 +12181,22 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="149">
+      <c r="A19" s="122">
         <v>11294</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="122" t="s">
         <v>595</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="123" t="s">
         <v>578</v>
       </c>
-      <c r="D19" s="149">
+      <c r="D19" s="122">
         <v>5</v>
       </c>
-      <c r="E19" s="149">
+      <c r="E19" s="122">
         <v>30000</v>
       </c>
-      <c r="F19" s="149">
+      <c r="F19" s="122">
         <v>150000</v>
       </c>
       <c r="G19" s="66">
@@ -12110,22 +12205,22 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="149">
+      <c r="A20" s="122">
         <v>11295</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="122" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="123" t="s">
         <v>580</v>
       </c>
-      <c r="D20" s="149">
+      <c r="D20" s="122">
         <v>180</v>
       </c>
-      <c r="E20" s="149">
+      <c r="E20" s="122">
         <v>26000</v>
       </c>
-      <c r="F20" s="149">
+      <c r="F20" s="122">
         <v>4680000</v>
       </c>
       <c r="G20" s="66">
@@ -12134,22 +12229,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="149">
+      <c r="A21" s="122">
         <v>11296</v>
       </c>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="122" t="s">
         <v>597</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="123" t="s">
         <v>582</v>
       </c>
-      <c r="D21" s="149">
+      <c r="D21" s="122">
         <v>5</v>
       </c>
-      <c r="E21" s="149">
+      <c r="E21" s="122">
         <v>30000</v>
       </c>
-      <c r="F21" s="149">
+      <c r="F21" s="122">
         <v>150000</v>
       </c>
       <c r="G21" s="66">
@@ -12158,22 +12253,22 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="149">
+      <c r="A22" s="122">
         <v>11297</v>
       </c>
-      <c r="B22" s="149" t="s">
+      <c r="B22" s="122" t="s">
         <v>598</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="123" t="s">
         <v>584</v>
       </c>
-      <c r="D22" s="149">
+      <c r="D22" s="122">
         <v>250</v>
       </c>
-      <c r="E22" s="149">
+      <c r="E22" s="122">
         <v>35000</v>
       </c>
-      <c r="F22" s="149">
+      <c r="F22" s="122">
         <v>8750000</v>
       </c>
       <c r="G22" s="66">
@@ -12182,22 +12277,22 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="149">
+      <c r="A23" s="122">
         <v>11297</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="122" t="s">
         <v>598</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="123" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="149">
+      <c r="D23" s="122">
         <v>250</v>
       </c>
-      <c r="E23" s="149">
+      <c r="E23" s="122">
         <v>35000</v>
       </c>
-      <c r="F23" s="149">
+      <c r="F23" s="122">
         <v>8750000</v>
       </c>
       <c r="G23" s="66">
@@ -12219,12 +12314,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4199A9E9-1198-42EA-AD1C-65C83245D6F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4199A9E9-1198-42EA-AD1C-65C83245D6F0}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12234,106 +12329,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="129"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="141"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="131"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="143"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="130"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="131"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="143"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="134"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="146"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
@@ -12558,6 +12653,7 @@
     <mergeCell ref="A2:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12578,121 +12674,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
